--- a/biology/Médecine/Paragangliome/Paragangliome.xlsx
+++ b/biology/Médecine/Paragangliome/Paragangliome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un paragangliome est une tumeur du système endocrinien. C'est la forme extra-surrenalienne du phéochromocytome. Les causes, l'expression clinique et le traitement du paragangliome sont identiques à ceux du phéochromocytome.
-La tumeur est habituellement bénigne mais peut parfois être maligne, avec formation de métastases[1].
+La tumeur est habituellement bénigne mais peut parfois être maligne, avec formation de métastases.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe des formes familiales, avec une mutation du gène PGL[2]. D'autres gènes peuvent être en cause[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe des formes familiales, avec une mutation du gène PGL. D'autres gènes peuvent être en cause.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes sont dus, d'une part, à la localisation de la tumeur (compression des structures adjacentes) et d'autre part au caractère sécrétoire de celle-ci.
 </t>
